--- a/coreapi/coreapi/v0/ui/proposal/Proposal Data.xlsx
+++ b/coreapi/coreapi/v0/ui/proposal/Proposal Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Organisation</t>
   </si>
@@ -58,6 +58,27 @@
     <t xml:space="preserve">Space Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Start Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Statuses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No.</t>
+  </si>
+  <si>
     <t xml:space="preserve">BUSHDF4BE8</t>
   </si>
   <si>
@@ -85,6 +106,15 @@
     <t xml:space="preserve">RS</t>
   </si>
   <si>
+    <t xml:space="preserve">FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOINO50RSATG, NDLGGNS56RSAAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F, F</t>
+  </si>
+  <si>
     <t xml:space="preserve">BUSLOD7176</t>
   </si>
   <si>
@@ -110,20 +140,31 @@
   </si>
   <si>
     <t xml:space="preserve">RS, CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL, FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENBLDBHRSAPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -183,8 +224,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -205,10 +250,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -218,7 +263,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="33.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -258,34 +306,55 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>100</v>
@@ -294,36 +363,57 @@
         <v>2</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>43314</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>43316</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>200</v>
@@ -332,7 +422,28 @@
         <v>3</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>43311</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>43312</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
